--- a/input_sample/M18001288W_stack_crown.xlsx
+++ b/input_sample/M18001288W_stack_crown.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16399" windowHeight="6749"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,34 +24,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>pce_wr_cr</t>
+  </si>
+  <si>
+    <t>wr_br_cr</t>
+  </si>
+  <si>
+    <t>pce_wr_w_cr</t>
+  </si>
+  <si>
+    <t>br_w_cr</t>
+  </si>
+  <si>
+    <t>wr_br_w_cr</t>
+  </si>
   <si>
     <t>pce_wr_t_cr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pce_wr_w_cr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_crn_vrn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_crn_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>br_w_cr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wr_br_t_cr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_br_w_cr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_grn_cr</t>
+  </si>
+  <si>
+    <t>br_grn_cr</t>
+  </si>
+  <si>
+    <t>wr_eqv_cr</t>
+  </si>
+  <si>
+    <t>wr_cr_vrn</t>
+  </si>
+  <si>
+    <t>wr_cr_off</t>
+  </si>
+  <si>
+    <t>pce_wr_cr_chg</t>
+  </si>
+  <si>
+    <t>wr_br_cr_chg</t>
+  </si>
+  <si>
+    <t>cSLFG_wr_crn_off</t>
+  </si>
+  <si>
+    <t>cSPRP_wr_crn_off_adj</t>
+  </si>
+  <si>
+    <t>cSPRP_wr_crn_off_adj2</t>
+  </si>
+  <si>
+    <t>cSPRP_wr_crn_off_adj3</t>
   </si>
 </sst>
 </file>
@@ -97,11 +123,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,25 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -424,199 +437,455 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-1.0299</v>
+      </c>
+      <c r="C2">
+        <v>-0.45029999999999998</v>
+      </c>
+      <c r="D2">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-2.58E-2</v>
+      </c>
+      <c r="G2">
         <v>0.22750000000000001</v>
       </c>
-      <c r="C2">
-        <v>-1.8100000000000002E-2</v>
-      </c>
-      <c r="D2">
+      <c r="H2">
+        <v>0.22189999999999999</v>
+      </c>
+      <c r="I2">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>-0.02</v>
       </c>
-      <c r="E2">
+      <c r="M2">
         <v>-0.42230000000000001</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.22189999999999999</v>
-      </c>
-      <c r="H2">
-        <v>-2.58E-2</v>
-      </c>
-      <c r="K2" s="1"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="Q2">
+        <v>-0.5</v>
+      </c>
+      <c r="R2">
+        <v>-0.4</v>
+      </c>
+      <c r="S2">
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>-0.49399999999999999</v>
+      </c>
+      <c r="C3">
+        <v>-7.1199999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>-3.1899999999999998E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>-5.2699999999999997E-2</v>
+      </c>
+      <c r="G3">
         <v>0.2873</v>
       </c>
-      <c r="C3">
-        <v>-3.1899999999999998E-2</v>
-      </c>
-      <c r="D3">
+      <c r="H3">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="I3">
+        <v>-0.47120000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>-0.02</v>
       </c>
-      <c r="E3">
+      <c r="M3">
         <v>-0.25819999999999999</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.28189999999999998</v>
-      </c>
-      <c r="H3">
-        <v>-5.2699999999999997E-2</v>
-      </c>
-      <c r="K3" s="1"/>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="Q3">
+        <v>-0.35</v>
+      </c>
+      <c r="R3">
+        <v>-0.25</v>
+      </c>
+      <c r="S3">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>-0.3075</v>
+      </c>
+      <c r="C4">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D4">
+        <v>-4.5100000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-8.5800000000000001E-2</v>
+      </c>
+      <c r="G4">
         <v>0.22939999999999999</v>
       </c>
-      <c r="C4">
-        <v>-4.5100000000000001E-2</v>
-      </c>
-      <c r="D4">
+      <c r="H4">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="I4">
+        <v>-0.36559999999999998</v>
+      </c>
+      <c r="J4">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>-0.02</v>
       </c>
-      <c r="E4">
+      <c r="M4">
         <v>-0.1062</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.21540000000000001</v>
-      </c>
-      <c r="H4">
-        <v>-8.5800000000000001E-2</v>
-      </c>
-      <c r="K4" s="1"/>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-0.2</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>-0.20449999999999999</v>
+      </c>
+      <c r="C5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>-6.6299999999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-0.1149</v>
+      </c>
+      <c r="G5">
         <v>0.2525</v>
       </c>
-      <c r="C5">
-        <v>-6.6299999999999998E-2</v>
-      </c>
-      <c r="D5">
+      <c r="H5">
+        <v>0.2379</v>
+      </c>
+      <c r="I5">
+        <v>-0.36749999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>-0.02</v>
       </c>
-      <c r="E5">
+      <c r="M5">
         <v>-3.3E-3</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.2379</v>
-      </c>
-      <c r="H5">
-        <v>-0.1149</v>
-      </c>
-      <c r="K5" s="1"/>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="Q5">
+        <v>-0.1</v>
+      </c>
+      <c r="R5">
+        <v>0.1</v>
+      </c>
+      <c r="S5">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>-0.39029999999999998</v>
+      </c>
+      <c r="C6">
+        <v>-5.5800000000000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>-4.8599999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-8.6499999999999994E-2</v>
+      </c>
+      <c r="G6">
         <v>0.17519999999999999</v>
       </c>
-      <c r="C6">
-        <v>-4.8599999999999997E-2</v>
-      </c>
-      <c r="D6">
+      <c r="H6">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="I6">
+        <v>-0.39360000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>-0.02</v>
       </c>
-      <c r="E6">
+      <c r="M6">
         <v>-0.1033</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.16689999999999999</v>
-      </c>
-      <c r="H6">
-        <v>-8.6499999999999994E-2</v>
-      </c>
-      <c r="K6" s="1"/>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="Q6">
+        <v>-0.2</v>
+      </c>
+      <c r="R6">
+        <v>0.1</v>
+      </c>
+      <c r="S6">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>-0.20369999999999999</v>
+      </c>
+      <c r="C7">
+        <v>-0.14599999999999999</v>
+      </c>
+      <c r="D7">
+        <v>-7.5399999999999995E-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-7.5499999999999998E-2</v>
+      </c>
+      <c r="G7">
         <v>0.16370000000000001</v>
       </c>
-      <c r="C7">
-        <v>-7.5399999999999995E-2</v>
-      </c>
-      <c r="D7">
+      <c r="H7">
+        <v>0.1358</v>
+      </c>
+      <c r="I7">
+        <v>-0.36</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>-0.03</v>
       </c>
-      <c r="E7">
+      <c r="M7">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.1358</v>
-      </c>
-      <c r="H7">
-        <v>-7.5499999999999998E-2</v>
-      </c>
-      <c r="K7" s="1"/>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>-0.1051</v>
+      </c>
+      <c r="C8">
+        <v>-7.6399999999999996E-2</v>
+      </c>
+      <c r="D8">
+        <v>-6.6699999999999995E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-6.3399999999999998E-2</v>
+      </c>
+      <c r="G8">
         <v>0.2016</v>
       </c>
-      <c r="C8">
-        <v>-6.6699999999999995E-2</v>
-      </c>
-      <c r="D8">
+      <c r="H8">
+        <v>0.1565</v>
+      </c>
+      <c r="I8">
+        <v>-0.36</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>-0.03</v>
       </c>
-      <c r="E8">
+      <c r="M8">
         <v>0.15</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.1565</v>
-      </c>
-      <c r="H8">
-        <v>-6.3399999999999998E-2</v>
-      </c>
-      <c r="K8" s="1"/>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.15</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>